--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Tnfrsf11b.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N2">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q2">
-        <v>2.165707965827556</v>
+        <v>64.72868602297065</v>
       </c>
       <c r="R2">
-        <v>19.491371692448</v>
+        <v>582.558174206736</v>
       </c>
       <c r="S2">
-        <v>0.0004824972869855298</v>
+        <v>0.01489661005896494</v>
       </c>
       <c r="T2">
-        <v>0.0004824972869855298</v>
+        <v>0.01489661005896494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N3">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O3">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P3">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q3">
-        <v>44.20120715993955</v>
+        <v>8.011549274007999</v>
       </c>
       <c r="R3">
-        <v>397.8108644394559</v>
+        <v>72.10394346607201</v>
       </c>
       <c r="S3">
-        <v>0.009847570804869248</v>
+        <v>0.001843771793246787</v>
       </c>
       <c r="T3">
-        <v>0.009847570804869249</v>
+        <v>0.001843771793246787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N4">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q4">
-        <v>6.31660388748</v>
+        <v>0.7114934986133333</v>
       </c>
       <c r="R4">
-        <v>56.84943498732</v>
+        <v>6.403441487519999</v>
       </c>
       <c r="S4">
-        <v>0.001407273873837719</v>
+        <v>0.0001637425670060762</v>
       </c>
       <c r="T4">
-        <v>0.001407273873837719</v>
+        <v>0.0001637425670060761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I5">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J5">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N5">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q5">
-        <v>177.6932321163645</v>
+        <v>3626.645645500684</v>
       </c>
       <c r="R5">
-        <v>1599.23908904728</v>
+        <v>32639.81080950616</v>
       </c>
       <c r="S5">
-        <v>0.03958821030566529</v>
+        <v>0.8346334418698814</v>
       </c>
       <c r="T5">
-        <v>0.03958821030566529</v>
+        <v>0.8346334418698813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N6">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O6">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P6">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q6">
-        <v>3626.645645500684</v>
+        <v>448.8744028881466</v>
       </c>
       <c r="R6">
-        <v>32639.81080950616</v>
+        <v>4039.86962599332</v>
       </c>
       <c r="S6">
-        <v>0.8079790592372491</v>
+        <v>0.1033036101320285</v>
       </c>
       <c r="T6">
-        <v>0.8079790592372493</v>
+        <v>0.1033036101320285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N7">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q7">
-        <v>518.2682884653</v>
+        <v>39.86385259902222</v>
       </c>
       <c r="R7">
-        <v>4664.414596187699</v>
+        <v>358.7746733911999</v>
       </c>
       <c r="S7">
-        <v>0.1154648027623556</v>
+        <v>0.009174236402774372</v>
       </c>
       <c r="T7">
-        <v>0.1154648027623556</v>
+        <v>0.00917423640277437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H8">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I8">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J8">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N8">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q8">
-        <v>2.756122750124445</v>
+        <v>82.82196516926221</v>
       </c>
       <c r="R8">
-        <v>24.80510475112001</v>
+        <v>745.39768652336</v>
       </c>
       <c r="S8">
-        <v>0.0006140355812128128</v>
+        <v>0.01906058341746411</v>
       </c>
       <c r="T8">
-        <v>0.0006140355812128129</v>
+        <v>0.01906058341746411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H9">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I9">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J9">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N9">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O9">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P9">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q9">
-        <v>56.25132961540444</v>
+        <v>10.25097674141333</v>
       </c>
       <c r="R9">
-        <v>506.26196653864</v>
+        <v>92.25879067272001</v>
       </c>
       <c r="S9">
-        <v>0.01253221318710453</v>
+        <v>0.002359151909651963</v>
       </c>
       <c r="T9">
-        <v>0.01253221318710453</v>
+        <v>0.002359151909651962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N10">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q10">
-        <v>8.0386349187</v>
+        <v>0.9103736439111112</v>
       </c>
       <c r="R10">
-        <v>72.3477142683</v>
+        <v>8.193362795200001</v>
       </c>
       <c r="S10">
-        <v>0.001790924538552826</v>
+        <v>0.0002095126908105346</v>
       </c>
       <c r="T10">
-        <v>0.001790924538552826</v>
+        <v>0.0002095126908105346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H11">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I11">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J11">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N11">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q11">
-        <v>1.899282251756445</v>
+        <v>54.96896603920799</v>
       </c>
       <c r="R11">
-        <v>17.093540265808</v>
+        <v>494.720694352872</v>
       </c>
       <c r="S11">
-        <v>0.0004231403994222648</v>
+        <v>0.01265051560200028</v>
       </c>
       <c r="T11">
-        <v>0.0004231403994222648</v>
+        <v>0.01265051560200028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H12">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I12">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J12">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N12">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O12">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P12">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q12">
-        <v>38.76356812170845</v>
+        <v>6.803576698716</v>
       </c>
       <c r="R12">
-        <v>348.872113095376</v>
+        <v>61.23219028844401</v>
       </c>
       <c r="S12">
-        <v>0.008636121188877013</v>
+        <v>0.001565769913065522</v>
       </c>
       <c r="T12">
-        <v>0.008636121188877015</v>
+        <v>0.001565769913065522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H13">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I13">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J13">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N13">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q13">
-        <v>5.539534343580001</v>
+        <v>0.6042152925600001</v>
       </c>
       <c r="R13">
-        <v>49.85580909222</v>
+        <v>5.43793763304</v>
       </c>
       <c r="S13">
-        <v>0.00123415083386794</v>
+        <v>0.0001390536431055558</v>
       </c>
       <c r="T13">
-        <v>0.00123415083386794</v>
+        <v>0.0001390536431055558</v>
       </c>
     </row>
   </sheetData>
